--- a/ptResultData.xlsx
+++ b/ptResultData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Pt Num</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>50.7/55.6</t>
+  </si>
+  <si>
+    <t>Given &amp; Regression Temp RMSE</t>
+  </si>
+  <si>
+    <t>Error (RMSE/ Given Temp Range)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -234,11 +240,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +276,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -560,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -1014,6 +1041,58 @@
       </c>
       <c r="H20" s="4">
         <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="D22" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="E22" s="10">
+        <v>12.847</v>
+      </c>
+      <c r="F22" s="10">
+        <v>16.189</v>
+      </c>
+      <c r="G22" s="11">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="H22" s="11">
+        <v>11.997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="13">
+        <f>C22/31</f>
+        <v>8.8774193548387087E-2</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" ref="D23" si="0">D22/31</f>
+        <v>0.24838709677419354</v>
+      </c>
+      <c r="E23" s="13">
+        <f>E22/59</f>
+        <v>0.21774576271186441</v>
+      </c>
+      <c r="F23" s="13">
+        <f>F22/102</f>
+        <v>0.1587156862745098</v>
+      </c>
+      <c r="G23" s="13">
+        <f>G22/36</f>
+        <v>0.23961111111111111</v>
+      </c>
+      <c r="H23" s="13">
+        <f>H22/108</f>
+        <v>0.11108333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/ptResultData.xlsx
+++ b/ptResultData.xlsx
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,6 +286,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +591,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,10 +1044,23 @@
         <v>62</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="B22" s="10">
+        <v>5.2831000000000001</v>
+      </c>
       <c r="C22" s="11">
         <v>2.7519999999999998</v>
       </c>
@@ -1070,6 +1084,10 @@
       <c r="A23" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="B23" s="14">
+        <f>B22/24</f>
+        <v>0.22012916666666668</v>
+      </c>
       <c r="C23" s="13">
         <f>C22/31</f>
         <v>8.8774193548387087E-2</v>
@@ -1097,6 +1115,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
